--- a/gap_result_1_N.xlsx
+++ b/gap_result_1_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002690227278023867</v>
+        <v>-0.0002062934650023246</v>
       </c>
       <c r="D2">
-        <v>0.9750593054258017</v>
+        <v>0.9803383827457538</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0004786654955449007</v>
+        <v>-0.0003175642937791555</v>
       </c>
       <c r="D3">
-        <v>0.9844057025088047</v>
+        <v>0.9897647773197532</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0003990731809724119</v>
+        <v>0.00140340628272656</v>
       </c>
       <c r="D4">
-        <v>0.9796210438246811</v>
+        <v>0.9272010758145076</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.02752652779139598</v>
+        <v>-0.003068923221076252</v>
       </c>
       <c r="D5">
-        <v>0.0728342667206814</v>
+        <v>0.8373615742118594</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.0003815213882733316</v>
+        <v>0.001616450356258603</v>
       </c>
       <c r="D6">
-        <v>0.9756646891248749</v>
+        <v>0.8970104367057214</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_N.xlsx
+++ b/gap_result_1_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002062934650023246</v>
+        <v>-0.0004837877433085946</v>
       </c>
       <c r="D2">
-        <v>0.9803383827457538</v>
+        <v>0.9530705831786931</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003175642937791555</v>
+        <v>-0.000373774999344989</v>
       </c>
       <c r="D3">
-        <v>0.9897647773197532</v>
+        <v>0.9868610621012082</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.00140340628272656</v>
+        <v>0.002264930121715764</v>
       </c>
       <c r="D4">
-        <v>0.9272010758145076</v>
+        <v>0.8793950901427049</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.003068923221076252</v>
+        <v>-0.003230943992811805</v>
       </c>
       <c r="D5">
-        <v>0.8373615742118594</v>
+        <v>0.822868835056735</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001616450356258603</v>
+        <v>0.00646426333302097</v>
       </c>
       <c r="D6">
-        <v>0.8970104367057214</v>
+        <v>0.5887531057230028</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_N.xlsx
+++ b/gap_result_1_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004837877433085946</v>
+        <v>1.01927548148556E-05</v>
       </c>
       <c r="D2">
-        <v>0.9530705831786931</v>
+        <v>0.9990280764493237</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.000373774999344989</v>
+        <v>-0.0002668186587113884</v>
       </c>
       <c r="D3">
-        <v>0.9868610621012082</v>
+        <v>0.9913970348617126</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002264930121715764</v>
+        <v>0.001480055039064565</v>
       </c>
       <c r="D4">
-        <v>0.8793950901427049</v>
+        <v>0.9232083675343273</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.003230943992811805</v>
+        <v>-0.003004405740338483</v>
       </c>
       <c r="D5">
-        <v>0.822868835056735</v>
+        <v>0.8406754235146168</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.00646426333302097</v>
+        <v>0.001629196489666506</v>
       </c>
       <c r="D6">
-        <v>0.5887531057230028</v>
+        <v>0.8961642195999038</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_N.xlsx
+++ b/gap_result_1_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1.01927548148556E-05</v>
+        <v>-0.0004756182841989393</v>
       </c>
       <c r="D2">
-        <v>0.9990280764493237</v>
+        <v>0.9547278486883045</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0002668186587113884</v>
+        <v>-0.000833445845240972</v>
       </c>
       <c r="D3">
-        <v>0.9913970348617126</v>
+        <v>0.9731650169766329</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001480055039064565</v>
+        <v>0.001162399235909328</v>
       </c>
       <c r="D4">
-        <v>0.9232083675343273</v>
+        <v>0.9397279667144779</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.003004405740338483</v>
+        <v>-0.003254515807678795</v>
       </c>
       <c r="D5">
-        <v>0.8406754235146168</v>
+        <v>0.8278213211221369</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001629196489666506</v>
+        <v>0.001601375882307332</v>
       </c>
       <c r="D6">
-        <v>0.8961642195999038</v>
+        <v>0.89805238253945</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_N.xlsx
+++ b/gap_result_1_N.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
